--- a/Example/例程功能说明.xlsx
+++ b/Example/例程功能说明.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20407"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660C00C6-B534-478E-B67C-5D201D008EF0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A400CC0D-5D3F-4EDB-9680-3A1EA99FC30F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6465" yWindow="3540" windowWidth="25020" windowHeight="16605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>文件夹名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E13_dual_core_demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GPIO演示例程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双核使用例程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本例程主要作用是，展示如何使用GPIO模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本例程主要作用是，展示如何使用双核同时运行程序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FFT使用例程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +182,29 @@
   </si>
   <si>
     <t>本例程主要作用是，展示如何使用32位定时器进行计数以及时长获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E13_ipc_communication_demo</t>
+  </si>
+  <si>
+    <t>IPC通讯使用例程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本例程主要作用是，展示如何使用双核同时运行程序并且使用IPC交互数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据交叉访问例程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本例程主要作用是，展示如何直接访问不同核心的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E15_cross_memory_access_demo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -622,10 +633,10 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -633,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -644,7 +655,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -655,10 +666,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -666,10 +677,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -677,7 +688,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
@@ -691,18 +702,18 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -710,10 +721,10 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -721,10 +732,10 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -732,10 +743,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -743,32 +754,43 @@
         <v>17</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
